--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.97703719197183</v>
+        <v>89.79236036852737</v>
       </c>
       <c r="D2" t="n">
-        <v>2.282369712244873</v>
+        <v>2.127982172292893</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.05562161580667</v>
+        <v>88.91418554989599</v>
       </c>
       <c r="D3" t="n">
-        <v>2.240490200631744</v>
+        <v>2.273420045511647</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.14287280654833</v>
+        <v>87.70307594577069</v>
       </c>
       <c r="D4" t="n">
-        <v>2.410655572395509</v>
+        <v>2.339760999241888</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.92831974202319</v>
+        <v>86.95830495902932</v>
       </c>
       <c r="D5" t="n">
-        <v>1.875245706396652</v>
+        <v>2.2017171069028</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.72602763433275</v>
+        <v>86.23788400648171</v>
       </c>
       <c r="D6" t="n">
-        <v>1.955393558329426</v>
+        <v>2.313185391182903</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.88319974653812</v>
+        <v>84.91508758287307</v>
       </c>
       <c r="D7" t="n">
-        <v>2.50677385972556</v>
+        <v>2.171242273717238</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.91796595274661</v>
+        <v>83.81325246295235</v>
       </c>
       <c r="D8" t="n">
-        <v>2.205313921313167</v>
+        <v>2.429899105660124</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.7427238441812</v>
+        <v>83.06226058348672</v>
       </c>
       <c r="D9" t="n">
-        <v>2.206923174827601</v>
+        <v>2.266845302834396</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79987543600495</v>
+        <v>81.99690778063685</v>
       </c>
       <c r="D10" t="n">
-        <v>2.060262085520473</v>
+        <v>2.004234320748436</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01810447439729</v>
+        <v>80.93918206290331</v>
       </c>
       <c r="D11" t="n">
-        <v>2.395927627497781</v>
+        <v>2.29963269157087</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.85986901952062</v>
+        <v>80.38933498726945</v>
       </c>
       <c r="D12" t="n">
-        <v>2.597336870919237</v>
+        <v>2.328939799675072</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.52904704953026</v>
+        <v>79.09925513081998</v>
       </c>
       <c r="D13" t="n">
-        <v>2.36888937870054</v>
+        <v>2.313173383228449</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.06416569875036</v>
+        <v>78.11830955946903</v>
       </c>
       <c r="D14" t="n">
-        <v>2.396952647619146</v>
+        <v>2.282324185024728</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.28324967787053</v>
+        <v>77.6135497673297</v>
       </c>
       <c r="D15" t="n">
-        <v>2.444035684039874</v>
+        <v>2.271716778898675</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.69102658114954</v>
+        <v>76.01855440800584</v>
       </c>
       <c r="D16" t="n">
-        <v>2.632743134649542</v>
+        <v>2.339608403175682</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.86258341902679</v>
+        <v>74.9742205447631</v>
       </c>
       <c r="D17" t="n">
-        <v>2.467481959325989</v>
+        <v>2.494399845927054</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.9781337871005</v>
+        <v>73.67772828917481</v>
       </c>
       <c r="D18" t="n">
-        <v>2.630401239907436</v>
+        <v>2.720341302145187</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.91784540342442</v>
+        <v>73.07268640321492</v>
       </c>
       <c r="D19" t="n">
-        <v>2.467590127724892</v>
+        <v>2.383789847632465</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.78402298346251</v>
+        <v>72.01496364988272</v>
       </c>
       <c r="D20" t="n">
-        <v>2.244567797350558</v>
+        <v>2.492708909595941</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.60105555977572</v>
+        <v>70.90137457054634</v>
       </c>
       <c r="D21" t="n">
-        <v>2.286095044943175</v>
+        <v>2.369658962924078</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.71073310145022</v>
+        <v>69.71785743185983</v>
       </c>
       <c r="D22" t="n">
-        <v>2.489064323151703</v>
+        <v>2.611086312136118</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.80986983675183</v>
+        <v>68.83788038576255</v>
       </c>
       <c r="D23" t="n">
-        <v>2.606589860550262</v>
+        <v>2.66388366709192</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.28355668677365</v>
+        <v>67.90304374812277</v>
       </c>
       <c r="D24" t="n">
-        <v>2.50254085817547</v>
+        <v>2.700623390647507</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.23580068280361</v>
+        <v>66.75815266234252</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220263618219701</v>
+        <v>2.733117270836461</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.7995243881234</v>
+        <v>66.04111450603197</v>
       </c>
       <c r="D26" t="n">
-        <v>2.305417132362084</v>
+        <v>2.195917425270005</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.2019545750578</v>
+        <v>64.86170834010058</v>
       </c>
       <c r="D27" t="n">
-        <v>2.663178423401234</v>
+        <v>2.554440294025654</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.08419361008833</v>
+        <v>64.09922007545734</v>
       </c>
       <c r="D28" t="n">
-        <v>2.455180330685229</v>
+        <v>2.480494498069946</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.34488354337102</v>
+        <v>63.20906702790889</v>
       </c>
       <c r="D29" t="n">
-        <v>2.354515143411653</v>
+        <v>2.621132585016698</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.78294546467187</v>
+        <v>61.98187091294515</v>
       </c>
       <c r="D30" t="n">
-        <v>2.525573417432835</v>
+        <v>2.652216970668388</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.24468703563723</v>
+        <v>61.04353379695578</v>
       </c>
       <c r="D31" t="n">
-        <v>2.837296277473578</v>
+        <v>2.610107102895598</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.15047042797054</v>
+        <v>59.70857443752029</v>
       </c>
       <c r="D32" t="n">
-        <v>2.477883845360428</v>
+        <v>2.663272847383824</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.33972668370462</v>
+        <v>59.23082657346917</v>
       </c>
       <c r="D33" t="n">
-        <v>2.29943784587996</v>
+        <v>2.434274929354159</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.73175898859947</v>
+        <v>58.09280803086385</v>
       </c>
       <c r="D34" t="n">
-        <v>2.888601395263779</v>
+        <v>2.958858827723973</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.50578465473146</v>
+        <v>57.08529338525529</v>
       </c>
       <c r="D35" t="n">
-        <v>2.959219553469565</v>
+        <v>2.864590114556369</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.04150616138174</v>
+        <v>56.45076337549709</v>
       </c>
       <c r="D36" t="n">
-        <v>2.552278474556975</v>
+        <v>2.60899673932974</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.88466751985744</v>
+        <v>54.66002448519049</v>
       </c>
       <c r="D37" t="n">
-        <v>2.642893061599733</v>
+        <v>2.636791923077909</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98705832171495</v>
+        <v>54.14241957980303</v>
       </c>
       <c r="D38" t="n">
-        <v>2.958923056051119</v>
+        <v>2.769768166571728</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.916122796248</v>
+        <v>52.66867180721458</v>
       </c>
       <c r="D39" t="n">
-        <v>2.743253982919477</v>
+        <v>2.956213043437088</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.16856303001178</v>
+        <v>52.16314309579042</v>
       </c>
       <c r="D40" t="n">
-        <v>3.023103913698999</v>
+        <v>2.513928930255745</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.08270732551225</v>
+        <v>51.22986719512193</v>
       </c>
       <c r="D41" t="n">
-        <v>2.968051197709609</v>
+        <v>2.687368259642132</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.51587750981773</v>
+        <v>49.89287647917279</v>
       </c>
       <c r="D42" t="n">
-        <v>2.982237991546961</v>
+        <v>3.058065226686897</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.7809280782108</v>
+        <v>48.89295318074139</v>
       </c>
       <c r="D43" t="n">
-        <v>2.435295748542142</v>
+        <v>2.681284563563506</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12419216320892</v>
+        <v>48.08706597005953</v>
       </c>
       <c r="D44" t="n">
-        <v>2.93721241292706</v>
+        <v>2.864901785275273</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.84307268920579</v>
+        <v>47.26065801189343</v>
       </c>
       <c r="D45" t="n">
-        <v>2.603353054885508</v>
+        <v>2.872042536780333</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.62677371445046</v>
+        <v>45.72536105360883</v>
       </c>
       <c r="D46" t="n">
-        <v>2.854616718310534</v>
+        <v>2.978389572154574</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.49606317880433</v>
+        <v>45.32306292074571</v>
       </c>
       <c r="D47" t="n">
-        <v>2.846527932943927</v>
+        <v>2.59155445954656</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.01273781144265</v>
+        <v>43.04025482331197</v>
       </c>
       <c r="D48" t="n">
-        <v>2.833270092584322</v>
+        <v>3.119090552614478</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.98842266367625</v>
+        <v>42.20457263330732</v>
       </c>
       <c r="D49" t="n">
-        <v>3.063537854931632</v>
+        <v>2.533597312034228</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.18267277682337</v>
+        <v>42.18800763418177</v>
       </c>
       <c r="D50" t="n">
-        <v>2.747182194595321</v>
+        <v>3.009222567201223</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.69446246583757</v>
+        <v>41.12311632253866</v>
       </c>
       <c r="D51" t="n">
-        <v>2.943212441539808</v>
+        <v>2.672391575918418</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.26379324190746</v>
+        <v>40.01977714917697</v>
       </c>
       <c r="D52" t="n">
-        <v>2.525550491240047</v>
+        <v>3.017895524647637</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.28815661430887</v>
+        <v>39.02658585113656</v>
       </c>
       <c r="D53" t="n">
-        <v>2.786774388204455</v>
+        <v>2.939435227484521</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.80309442975289</v>
+        <v>38.05780508830129</v>
       </c>
       <c r="D54" t="n">
-        <v>3.123404261671085</v>
+        <v>2.989202533091443</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.52127343646379</v>
+        <v>37.09317661321025</v>
       </c>
       <c r="D55" t="n">
-        <v>2.778036338683993</v>
+        <v>3.027946120431145</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.29506455658211</v>
+        <v>35.75210073666763</v>
       </c>
       <c r="D56" t="n">
-        <v>2.985968248670965</v>
+        <v>3.211461681719574</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.09530064060905</v>
+        <v>34.89559973649514</v>
       </c>
       <c r="D57" t="n">
-        <v>2.595073859750187</v>
+        <v>2.97655965036915</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.82887087817232</v>
+        <v>34.06222358138288</v>
       </c>
       <c r="D58" t="n">
-        <v>3.198936412904004</v>
+        <v>3.027978678049667</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.07511470262046</v>
+        <v>32.20234791054489</v>
       </c>
       <c r="D59" t="n">
-        <v>3.083263966457361</v>
+        <v>3.331567152500506</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99114932755631</v>
+        <v>31.77744767441882</v>
       </c>
       <c r="D60" t="n">
-        <v>3.130341081689746</v>
+        <v>3.203424329626646</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.20246827739483</v>
+        <v>31.05015607310559</v>
       </c>
       <c r="D61" t="n">
-        <v>3.089859933840597</v>
+        <v>3.115887208742868</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.71105249029641</v>
+        <v>30.00078781542712</v>
       </c>
       <c r="D62" t="n">
-        <v>3.226565047032785</v>
+        <v>3.054808318687215</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.31034477851773</v>
+        <v>28.21430722671134</v>
       </c>
       <c r="D63" t="n">
-        <v>2.950694203140352</v>
+        <v>2.710529125917824</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.10153298862743</v>
+        <v>28.14513411773483</v>
       </c>
       <c r="D64" t="n">
-        <v>2.860169242200609</v>
+        <v>3.420080896073997</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.90416990030342</v>
+        <v>27.03245949082537</v>
       </c>
       <c r="D65" t="n">
-        <v>3.363449415790027</v>
+        <v>3.284827930098535</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.54219325262597</v>
+        <v>26.20152963270558</v>
       </c>
       <c r="D66" t="n">
-        <v>3.184845845206833</v>
+        <v>3.233399924982224</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.76759143195641</v>
+        <v>25.03437901229682</v>
       </c>
       <c r="D67" t="n">
-        <v>3.257956012914058</v>
+        <v>3.394092430257966</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.11885332171253</v>
+        <v>23.82109224269242</v>
       </c>
       <c r="D68" t="n">
-        <v>3.28553873806574</v>
+        <v>3.510623832784396</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.17156072877648</v>
+        <v>22.38451913802329</v>
       </c>
       <c r="D69" t="n">
-        <v>2.875526048809178</v>
+        <v>3.131709559296085</v>
       </c>
     </row>
   </sheetData>
